--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntf</t>
   </si>
   <si>
     <t>Cntfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H2">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N2">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P2">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q2">
-        <v>4.69409130153236</v>
+        <v>7.078294182286888</v>
       </c>
       <c r="R2">
-        <v>4.69409130153236</v>
+        <v>63.704647640582</v>
       </c>
       <c r="S2">
-        <v>0.7319276946970901</v>
+        <v>0.3533285425616638</v>
       </c>
       <c r="T2">
-        <v>0.7319276946970901</v>
+        <v>0.3533285425616638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H3">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185010849503243</v>
+        <v>0.2062943333333333</v>
       </c>
       <c r="N3">
-        <v>0.185010849503243</v>
+        <v>0.618883</v>
       </c>
       <c r="O3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466232</v>
       </c>
       <c r="P3">
-        <v>0.0326876942460352</v>
+        <v>0.03512549408466231</v>
       </c>
       <c r="Q3">
-        <v>0.1586240765415118</v>
+        <v>0.2576797074698889</v>
       </c>
       <c r="R3">
-        <v>0.1586240765415118</v>
+        <v>2.319117367229</v>
       </c>
       <c r="S3">
-        <v>0.02473351011059007</v>
+        <v>0.01286264644324747</v>
       </c>
       <c r="T3">
-        <v>0.02473351011059007</v>
+        <v>0.01286264644324747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H4">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I4">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J4">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.47494326383051</v>
+        <v>5.666771333333333</v>
       </c>
       <c r="N4">
-        <v>5.47494326383051</v>
+        <v>17.000314</v>
       </c>
       <c r="O4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153377</v>
       </c>
       <c r="P4">
-        <v>0.9673123057539648</v>
+        <v>0.9648745059153376</v>
       </c>
       <c r="Q4">
-        <v>1.50959837055206</v>
+        <v>3.294318957996222</v>
       </c>
       <c r="R4">
-        <v>1.50959837055206</v>
+        <v>29.648870621966</v>
       </c>
       <c r="S4">
-        <v>0.2353846110568746</v>
+        <v>0.1644431392912242</v>
       </c>
       <c r="T4">
-        <v>0.2353846110568746</v>
+        <v>0.1644431392912241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.5813396666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.744019</v>
+      </c>
+      <c r="I5">
+        <v>0.1704295618581233</v>
+      </c>
+      <c r="J5">
+        <v>0.1704295618581232</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.618883</v>
+      </c>
+      <c r="O5">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P5">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q5">
+        <v>0.1199270789752222</v>
+      </c>
+      <c r="R5">
+        <v>1.079343710777</v>
+      </c>
+      <c r="S5">
+        <v>0.0059864225668991</v>
+      </c>
+      <c r="T5">
+        <v>0.005986422566899098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.704738</v>
+      </c>
+      <c r="H6">
+        <v>2.114214</v>
+      </c>
+      <c r="I6">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J6">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N6">
+        <v>17.000314</v>
+      </c>
+      <c r="O6">
+        <v>0.9648745059153377</v>
+      </c>
+      <c r="P6">
+        <v>0.9648745059153376</v>
+      </c>
+      <c r="Q6">
+        <v>3.993589095910667</v>
+      </c>
+      <c r="R6">
+        <v>35.942301863196</v>
+      </c>
+      <c r="S6">
+        <v>0.199348738341415</v>
+      </c>
+      <c r="T6">
+        <v>0.1993487383414149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.704738</v>
+      </c>
+      <c r="H7">
+        <v>2.114214</v>
+      </c>
+      <c r="I7">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J7">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.618883</v>
+      </c>
+      <c r="O7">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P7">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q7">
+        <v>0.1453834558846667</v>
+      </c>
+      <c r="R7">
+        <v>1.308451102962</v>
+      </c>
+      <c r="S7">
+        <v>0.007257133323005089</v>
+      </c>
+      <c r="T7">
+        <v>0.007257133323005086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="H5">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="I5">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="J5">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="N5">
-        <v>0.185010849503243</v>
-      </c>
-      <c r="O5">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="P5">
-        <v>0.0326876942460352</v>
-      </c>
-      <c r="Q5">
-        <v>0.0510127801304635</v>
-      </c>
-      <c r="R5">
-        <v>0.0510127801304635</v>
-      </c>
-      <c r="S5">
-        <v>0.007954184135445129</v>
-      </c>
-      <c r="T5">
-        <v>0.007954184135445129</v>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.627582</v>
+      </c>
+      <c r="I8">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J8">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.666771333333333</v>
+      </c>
+      <c r="N8">
+        <v>17.000314</v>
+      </c>
+      <c r="O8">
+        <v>0.9648745059153377</v>
+      </c>
+      <c r="P8">
+        <v>0.9648745059153376</v>
+      </c>
+      <c r="Q8">
+        <v>4.963302117860889</v>
+      </c>
+      <c r="R8">
+        <v>44.669719060748</v>
+      </c>
+      <c r="S8">
+        <v>0.2477540857210348</v>
+      </c>
+      <c r="T8">
+        <v>0.2477540857210347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.627582</v>
+      </c>
+      <c r="I9">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J9">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2062943333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.618883</v>
+      </c>
+      <c r="O9">
+        <v>0.03512549408466232</v>
+      </c>
+      <c r="P9">
+        <v>0.03512549408466231</v>
+      </c>
+      <c r="Q9">
+        <v>0.1806850923228889</v>
+      </c>
+      <c r="R9">
+        <v>1.626165830906</v>
+      </c>
+      <c r="S9">
+        <v>0.009019291751510661</v>
+      </c>
+      <c r="T9">
+        <v>0.009019291751510656</v>
       </c>
     </row>
   </sheetData>
